--- a/NORMES_FINALES_2025.xlsx
+++ b/NORMES_FINALES_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\OneDrive\Anna OneDrive\OneDrive\LEXTOMM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60e82b86d5c629fb/LEXTOMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{454E74CC-4925-47CA-B2F9-544D24C8330F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{851F5DE0-D6D8-4F2A-BC73-C45CDDF3EE18}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{B26D73E9-3830-433E-8815-154D66B96B8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{17EEB576-A0C9-4665-8561-88CD7F3C92C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1" xr2:uid="{17EEB576-A0C9-4665-8561-88CD7F3C92C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Femmes" sheetId="7" r:id="rId1"/>
@@ -324,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -340,6 +340,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,9 +662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12963AB1-AAD2-4EE9-AD59-BF829D954B5A}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2846,9 +2847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A883C003-C50F-481B-9603-F0E3CB0B6B12}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4950,37 +4951,37 @@
       <c r="A56" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B56">
-        <v>73</v>
-      </c>
-      <c r="C56">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="D56">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="E56">
-        <v>0.05</v>
-      </c>
-      <c r="F56">
-        <v>0.75</v>
-      </c>
-      <c r="G56">
-        <v>0.87</v>
-      </c>
-      <c r="H56">
+      <c r="B56" s="9">
+        <v>72</v>
+      </c>
+      <c r="C56" s="9">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="D56" s="9">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H56" s="9">
         <v>0.95</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="9">
         <v>0.98299999999999998</v>
       </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56">
+      <c r="J56" s="9">
+        <v>1</v>
+      </c>
+      <c r="K56" s="9">
+        <v>1</v>
+      </c>
+      <c r="L56" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4988,37 +4989,37 @@
       <c r="A57" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B57">
-        <v>73</v>
-      </c>
-      <c r="C57">
-        <v>645</v>
-      </c>
-      <c r="D57">
-        <v>231</v>
-      </c>
-      <c r="E57">
+      <c r="B57" s="9">
+        <v>72</v>
+      </c>
+      <c r="C57" s="9">
+        <v>632</v>
+      </c>
+      <c r="D57" s="9">
+        <v>206</v>
+      </c>
+      <c r="E57" s="9">
         <v>398</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="9">
         <v>468</v>
       </c>
-      <c r="G57">
-        <v>474</v>
-      </c>
-      <c r="H57">
-        <v>509</v>
-      </c>
-      <c r="I57">
-        <v>580</v>
-      </c>
-      <c r="J57">
+      <c r="G57" s="9">
+        <v>472</v>
+      </c>
+      <c r="H57" s="9">
+        <v>508</v>
+      </c>
+      <c r="I57" s="9">
+        <v>573</v>
+      </c>
+      <c r="J57" s="9">
         <v>704</v>
       </c>
-      <c r="K57">
-        <v>843</v>
-      </c>
-      <c r="L57">
+      <c r="K57" s="9">
+        <v>830</v>
+      </c>
+      <c r="L57" s="9">
         <v>1607</v>
       </c>
     </row>
